--- a/biology/Botanique/Didymoglossum_cuspidatum/Didymoglossum_cuspidatum.xlsx
+++ b/biology/Botanique/Didymoglossum_cuspidatum/Didymoglossum_cuspidatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum cuspidatum est une fougère de la famille des Hyménophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est classée dans le sous-genre Microgonium.
 Une variété est reconnue :
@@ -545,12 +559,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est décrite en 1810 par Carl Ludwig Willdenow sous le nom de Trichomanes cuspidatum Willd.
-En 1843, Karel Bořivoj Presl la reclasse dans le genre Microgonium : Microgonium cuspidatum (Willd.) C.Presl[1]. Il est suivi en cela par Edwin Bingham Copeland en 1938.
+En 1843, Karel Bořivoj Presl la reclasse dans le genre Microgonium : Microgonium cuspidatum (Willd.) C.Presl. Il est suivi en cela par Edwin Bingham Copeland en 1938.
 Karl Anton Eugen Prantl la reclasse en 1875 dans le genre Hemiphlebium : Hemiphlebium cuspidatum (Willd.) Prantl.
-Enfin, en 2006, Ebihara et Dubuisson la placent dans le genre Didymoglossum : Didymoglossum cuspidatum (Willd.) Ebihara &amp; Dubuisson, et en font l'espèce type du sous-genre Microgonium[2].
+Enfin, en 2006, Ebihara et Dubuisson la placent dans le genre Didymoglossum : Didymoglossum cuspidatum (Willd.) Ebihara &amp; Dubuisson, et en font l'espèce type du sous-genre Microgonium.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 un long rhizome traçant, densément couvert de poils bruns à noirâtres et sans racines aux frondes espacées ;
@@ -617,7 +635,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, presque strictement épiphyte, est présente dans les îles de l'Océan Indien : Madagascar, La Réunion, Maurice.
 </t>
